--- a/images/05_AdvancedMDC/CascadingSelect.xlsx
+++ b/images/05_AdvancedMDC/CascadingSelect.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://rodekruis-my.sharepoint.com/personal/tziere_redcross_nl/Documents/Documenten/GitHub/tijsziere.github.io/images/05_AdvancedMDC/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B33CA909-8579-4FE1-AE54-8C25451E6D93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="10" documentId="8_{B33CA909-8579-4FE1-AE54-8C25451E6D93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AC9EDD81-C3CA-44E0-B42D-F58473CA9A7E}"/>
   <bookViews>
-    <workbookView xWindow="1332" yWindow="504" windowWidth="20124" windowHeight="11436" xr2:uid="{158F23CF-47D1-4916-BA00-BFAFECBD55D0}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{158F23CF-47D1-4916-BA00-BFAFECBD55D0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -521,7 +521,7 @@
   <dimension ref="A1:E44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
